--- a/data/trans_orig/Q20C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Edad-trans_orig.xlsx
@@ -709,7 +709,7 @@
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>1.880377404579412</v>
+        <v>2.468072913443423</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>0.4650580294327714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.436404303016824</v>
+        <v>2.675753119732251</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>4.404255404751535</v>
@@ -752,13 +752,13 @@
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>8.832630038468553</v>
+        <v>8.000000000000002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9.080845878286128</v>
+        <v>9.331240386077964</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16.19015726945238</v>
+        <v>16.1563126856673</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -821,7 +821,7 @@
         <v>1.455781824363751</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.995336320572212</v>
+        <v>1.996176193434191</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>3</v>
@@ -830,28 +830,28 @@
         <v>4</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.680749546258008</v>
+        <v>1.701300397008258</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.607179523571488</v>
+        <v>2.613271297632314</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.047022955120267</v>
+        <v>3.023561490911401</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.195739313452323</v>
+        <v>2.000596010195678</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.605434198170146</v>
+        <v>2.608102398706897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.017062716562435</v>
+        <v>3.033912783694769</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.222250155666439</v>
+        <v>1.001325486592064</v>
       </c>
     </row>
     <row r="9">
@@ -865,7 +865,7 @@
         <v>5.463072634019619</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.408800384159785</v>
+        <v>6.333080985908941</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>4</v>
@@ -874,25 +874,25 @@
         <v>12</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.837460762096372</v>
+        <v>8.971261478047854</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.70083729547587</v>
+        <v>7.719248995807986</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>11.40227475104353</v>
+        <v>10.54323170031502</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>6.274091084280538</v>
+        <v>6.253335698536179</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.011515501622039</v>
+        <v>5.794772644112892</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9.459047358697688</v>
+        <v>9.563577925306523</v>
       </c>
       <c r="N9" s="5" t="n">
         <v>9.796453984751594</v>
@@ -931,7 +931,7 @@
         <v>6.562995793126668</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>9.352745692584518</v>
+        <v>9.352745692584515</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>3.267553917146625</v>
@@ -943,7 +943,7 @@
         <v>4.472378069977791</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>9.325604861532733</v>
+        <v>9.325604861532735</v>
       </c>
     </row>
     <row r="11">
@@ -954,40 +954,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.616964539973206</v>
+        <v>1.631130405693156</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.120879563399631</v>
+        <v>2.197052864335031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.377010860195289</v>
+        <v>1.375133316891355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.376317101655935</v>
+        <v>1.401052511349731</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.421028722852191</v>
+        <v>1.424291162951465</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.795977608127618</v>
+        <v>4.51443460670263</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.288766485386073</v>
+        <v>4.26049835631164</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.770553800835802</v>
+        <v>3.858839191189699</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.003740873166692</v>
+        <v>1.965552274360846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.93977271156136</v>
+        <v>3.924759438875718</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.035607030633755</v>
+        <v>2.987792307098902</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.596091186211695</v>
+        <v>4.157138343651732</v>
       </c>
     </row>
     <row r="12">
@@ -998,40 +998,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.721969920256119</v>
+        <v>4.544231507564652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.108208551631876</v>
+        <v>8.098052710313771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.402003462009011</v>
+        <v>4.279442122552306</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.3176374900096</v>
+        <v>27.74875297998771</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.127691091293407</v>
+        <v>7.101517010788489</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.2271162977466</v>
+        <v>9.974564788729399</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.18888793469367</v>
+        <v>11.99584719226905</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>24.00493026067823</v>
+        <v>24.20431886864444</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.314944349290381</v>
+        <v>5.219528944054483</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7.952694549310251</v>
+        <v>7.677664061580224</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7.031642577785354</v>
+        <v>6.986709840284506</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>19.13582849418485</v>
+        <v>19.97136455606115</v>
       </c>
     </row>
     <row r="13">
@@ -1055,7 +1055,7 @@
         <v>11.24518283484016</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.635169167804333</v>
+        <v>9.635169167804335</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>6.409030126176222</v>
@@ -1079,7 +1079,7 @@
         <v>8.620919157185629</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.265739659303958</v>
+        <v>7.265739659303957</v>
       </c>
     </row>
     <row r="14">
@@ -1090,40 +1090,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.366154959001221</v>
+        <v>5.766748042442067</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.509612598287792</v>
+        <v>4.438531266349977</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.467217199771394</v>
+        <v>5.618675483213962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.251290609481806</v>
+        <v>5.253938246433992</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.442847962055806</v>
+        <v>3.508649183384992</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.682923692947982</v>
+        <v>4.842481563997601</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>4.420122520100557</v>
+        <v>4.408914219646363</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.874435372570909</v>
+        <v>2.918302950154032</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.115999311893768</v>
+        <v>5.101044480514972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.552339305562947</v>
+        <v>5.396818913083338</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5.836468718672576</v>
+        <v>5.777640168983173</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>4.565372111080823</v>
+        <v>4.811523084145032</v>
       </c>
     </row>
     <row r="15">
@@ -1137,37 +1137,37 @@
         <v>20.99262884774643</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.14357437566761</v>
+        <v>15.31912092875853</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.07977685063591</v>
+        <v>21.42327981904979</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.10909427329754</v>
+        <v>17.35600000081331</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>12.9590479870049</v>
+        <v>13.66000483439957</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>10.01809430682879</v>
+        <v>10.0400556803539</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>9.252601707824018</v>
+        <v>9.116487818986094</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>6.948650514462549</v>
+        <v>7.023536054488651</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>13.39320134907481</v>
+        <v>13.25093735441753</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10.55471103275096</v>
+        <v>10.51385273270231</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13.57008035146738</v>
+        <v>13.79274564089554</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>12.51451149408872</v>
+        <v>12.08133686392173</v>
       </c>
     </row>
     <row r="16">
@@ -1191,7 +1191,7 @@
         <v>5.1481615566686</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.263629775358249</v>
+        <v>5.263629775358248</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>3.936445898105744</v>
@@ -1226,40 +1226,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.426160504547703</v>
+        <v>3.217417596044261</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.715385162193769</v>
+        <v>1.753901661841812</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.66471765073547</v>
+        <v>3.648792076078998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.860971428514511</v>
+        <v>2.786279890036366</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.36962146567711</v>
+        <v>2.371603081650096</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.073782229130861</v>
+        <v>2.180592505878661</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.224670500545087</v>
+        <v>4.163374734310957</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.984464662788264</v>
+        <v>4.08854549501708</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.550728113507573</v>
+        <v>3.538667037240856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.307977103441033</v>
+        <v>2.344698356716774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4.358421106522632</v>
+        <v>4.274371405219081</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.827253804121333</v>
+        <v>3.901645427147767</v>
       </c>
     </row>
     <row r="18">
@@ -1270,40 +1270,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.73906981856026</v>
+        <v>14.93741368945423</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.909270515162363</v>
+        <v>6.920523431189119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.116864537090885</v>
+        <v>8.504055154401316</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.512535728266027</v>
+        <v>9.447699515388319</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.784369170910574</v>
+        <v>5.869270772046592</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.358099785430667</v>
+        <v>4.576051611669731</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>14.26888963645194</v>
+        <v>15.51639303494008</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.06369439720345</v>
+        <v>11.48356542370406</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.723636243590745</v>
+        <v>8.652108235336357</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5.092447053341235</v>
+        <v>5.123080433892223</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9.491262955750182</v>
+        <v>9.689927174246355</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.763576568792663</v>
+        <v>8.91609994939806</v>
       </c>
     </row>
     <row r="19">
@@ -1339,7 +1339,7 @@
         <v>7.195425160000007</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>8.039819056552579</v>
+        <v>8.039819056552577</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>9.140910978635546</v>
@@ -1351,7 +1351,7 @@
         <v>10.3126291190787</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>8.374792572615315</v>
+        <v>8.374792572615316</v>
       </c>
     </row>
     <row r="20">
@@ -1362,40 +1362,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.861212904313694</v>
+        <v>5.602882321226264</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.790492160626862</v>
+        <v>3.744888786630708</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.727645198334265</v>
+        <v>4.012390161394495</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5.209614705814664</v>
+        <v>5.169674316742283</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.386229138183051</v>
+        <v>3.207715913929202</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.775542140296183</v>
+        <v>1.824953463912167</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>3.928729832010545</v>
+        <v>3.855419971737524</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>4.651963914070293</v>
+        <v>4.581961496987875</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>5.185291122109065</v>
+        <v>5.044191570711533</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.703315251856084</v>
+        <v>3.529773806136096</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5.387214043210118</v>
+        <v>5.431560198511796</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>5.612142055842732</v>
+        <v>5.604368517046468</v>
       </c>
     </row>
     <row r="21">
@@ -1406,40 +1406,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>43.37483023492555</v>
+        <v>45.6</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.90099868903249</v>
+        <v>15.75824484444115</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54.76174714916156</v>
+        <v>45.82705627889638</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.50709234863184</v>
+        <v>15.03679545905583</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>7.167786782934393</v>
+        <v>7.008464227619143</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>10.36149205839938</v>
+        <v>10.53027909988261</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>13.50552976973222</v>
+        <v>13.01383583632859</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>16.39576898958225</v>
+        <v>17.59811507210681</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>20.92275667605604</v>
+        <v>19.69079694780088</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11.23377500177465</v>
+        <v>10.39669627279291</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23.90406305594787</v>
+        <v>30.34461317040914</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>12.74726065755157</v>
+        <v>13.11094546879138</v>
       </c>
     </row>
     <row r="22">
@@ -1501,37 +1501,37 @@
         <v>1</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9788199029326466</v>
+        <v>0.978965667947164</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.120898247977435</v>
+        <v>3.126917551587176</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.525053925386898</v>
+        <v>1.679941800340049</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1</v>
+        <v>1.133397662719968</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.453386160918665</v>
+        <v>1.517420686793284</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.932288454698503</v>
+        <v>2.909818907427664</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.11825610261676</v>
+        <v>1.117934867346136</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.475771416150454</v>
+        <v>1.374449813885944</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2.316785732218324</v>
+        <v>2.487027972878333</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2.912639896810746</v>
+        <v>2.801289973122399</v>
       </c>
     </row>
     <row r="24">
@@ -1545,37 +1545,37 @@
         <v>2</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.602190473814493</v>
+        <v>5.438140495741339</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.26227322399252</v>
+        <v>14.72445124426749</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.340659832834627</v>
+        <v>4.486406588470492</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.800726818773828</v>
+        <v>9.936385383548465</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.029545102664358</v>
+        <v>4.028890008061309</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.923568597380401</v>
+        <v>5.110911916305647</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.651338910845492</v>
+        <v>7.805694375045255</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.114390906733023</v>
+        <v>7.159168510318189</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4.458844333391701</v>
+        <v>4.283097739439309</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6.770265144376977</v>
+        <v>6.76486081435309</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>6.346915234569687</v>
+        <v>6.195841049325735</v>
       </c>
     </row>
     <row r="25">
@@ -1623,7 +1623,7 @@
         <v>7.082196950616122</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>6.838856518604161</v>
+        <v>6.838856518604159</v>
       </c>
     </row>
     <row r="26">
@@ -1634,40 +1634,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.89299966298296</v>
+        <v>5.139572512069681</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.063993603897839</v>
+        <v>4.055432992212985</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.533471897069924</v>
+        <v>5.568860939153818</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.508443469150698</v>
+        <v>5.540522790050814</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.4725717315461</v>
+        <v>3.45497851759894</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>4.472040841686251</v>
+        <v>4.470541497295573</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>4.958348351847587</v>
+        <v>4.860206877520444</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>4.595760367905418</v>
+        <v>4.556993525985324</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>4.400961894915395</v>
+        <v>4.381933293559089</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4.603107830476437</v>
+        <v>4.564397349359282</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5.667537661511813</v>
+        <v>5.771761373100526</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>5.507962428046927</v>
+        <v>5.553277181593646</v>
       </c>
     </row>
     <row r="27">
@@ -1678,40 +1678,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.43175847183978</v>
+        <v>12.65488297389323</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.57447700555607</v>
+        <v>7.540923239571343</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>14.21244606393139</v>
+        <v>13.34155123036722</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10.514824287719</v>
+        <v>10.58868311399046</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>6.033241304464847</v>
+        <v>6.151652195921756</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>7.016745122395586</v>
+        <v>6.997508564011495</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>8.142741666847714</v>
+        <v>7.997831207279748</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>9.032154309919983</v>
+        <v>8.916436239811325</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>7.732130417852725</v>
+        <v>7.618825962286962</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6.647671056948028</v>
+        <v>6.651410381990642</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9.92363622916168</v>
+        <v>9.915048830207882</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>8.788705302190841</v>
+        <v>9.009110595686836</v>
       </c>
     </row>
     <row r="28">
